--- a/test/input.Tanner2013/InputData.xlsx
+++ b/test/input.Tanner2013/InputData.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="758" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="TCF.RetainedCatchAbundance" sheetId="1" r:id="rId1"/>
-    <sheet name="TCF.RetainedCatchBiomass" sheetId="2" r:id="rId2"/>
-    <sheet name="GTF.TotalCatchBiomass" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="BioData" sheetId="3" r:id="rId1"/>
+    <sheet name="TCF.RetainedCatchAbundance" sheetId="1" r:id="rId2"/>
+    <sheet name="TCF.RetainedCatchBiomass" sheetId="2" r:id="rId3"/>
+    <sheet name="GTF.TotalCatchBiomass" sheetId="4" r:id="rId4"/>
+    <sheet name="TCF" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="301">
   <si>
     <t>#year</t>
   </si>
@@ -82,6 +83,849 @@
   </si>
   <si>
     <t>MILLIONS_LBS #units</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#####################################################################                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#TCSAM2015 Tanner Crab Biological Data File                         #                                       </t>
+  </si>
+  <si>
+    <t>#####################################################################</t>
+  </si>
+  <si>
+    <t>BIO_DATA     #required keyword</t>
+  </si>
+  <si>
+    <t>#recruitment lag (in years)</t>
+  </si>
+  <si>
+    <t>5  #recLag</t>
+  </si>
+  <si>
+    <t>#length bins</t>
+  </si>
+  <si>
+    <t>32 #NUMBER OF SIZE BINS</t>
+  </si>
+  <si>
+    <t>#SIZE BINS</t>
+  </si>
+  <si>
+    <t>27.5 32.5 37.5 42.5 47.5 52.5 57.5 62.5 67.5 72.5 77.5 82.5 87.5 92.5 97.5 102.5 107.5 112.5 117.5 122.5 127.5 132.5 137.5 142.5 147.5 152.5 157.5 162.5 167.5 172.5 177.5 182.5#------------------</t>
+  </si>
+  <si>
+    <t>#WEIGHT-AT-SIZE</t>
+  </si>
+  <si>
+    <t>KG   #units</t>
+  </si>
+  <si>
+    <t>4    #number of factor combinations (sex x maturity state)</t>
+  </si>
+  <si>
+    <t>#juvenile female wt(kg)@length (Rugolo 2010); new allometry fits to 2006-2009 survey collections; source=Allometry_Bairdi_Opilio_Length-Weight Models.xls; a=0.000637, b=2.794000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMALE IMMATURE </t>
+  </si>
+  <si>
+    <t>0.006   0.010   0.015   0.022   0.030   0.040   0.051   0.065   0.081   0.099   0.119   0.142   0.167   0.196   0.227   0.261   0.298   0.339   0.383   0.430   0.481   0.536   0.595   0.658   0.724   0.795   0.870   0.950   1.034   1.123   1.217   1.315</t>
+  </si>
+  <si>
+    <t>#mature female wt(kg)@length (Rugolo 2010); new allometry fits to 2006-2009 survey collections; source=Allometry_Bairdi_Opilio_Length-Weight Models.xls; a=0.000344, b=2.956000</t>
+  </si>
+  <si>
+    <t>FEMALE MATURE</t>
+  </si>
+  <si>
+    <t>0.006   0.010   0.015   0.022   0.030   0.041   0.053   0.068   0.086   0.106   0.130   0.156   0.186   0.220   0.257   0.298   0.343   0.393   0.447   0.506   0.570   0.639   0.713   0.792   0.878   0.969   1.066   1.170   1.280   1.396   1.520   1.650</t>
+  </si>
+  <si>
+    <t>#male wt(kg)@length (Rugolo 2010); new allometry fits to 2006-2009 survey collections; source=Allometry_Bairdi_Opilio_Length-Weight Models.xls; a=0.000163 b=3.136000</t>
+  </si>
+  <si>
+    <t>MALE IMMATURE</t>
+  </si>
+  <si>
+    <t>0.005   0.009   0.013   0.020   0.029   0.039   0.052   0.068   0.087   0.109   0.134   0.164   0.197   0.235   0.277   0.324   0.377   0.435   0.499   0.569   0.645   0.728   0.818   0.916   1.021   1.134   1.255   1.384   1.523   1.670   1.827   1.994</t>
+  </si>
+  <si>
+    <t>MALE MATURE</t>
+  </si>
+  <si>
+    <t>#------------------</t>
+  </si>
+  <si>
+    <t>#PROBABILITY OF MATURING</t>
+  </si>
+  <si>
+    <t>1    #number of factor combinations (sex)</t>
+  </si>
+  <si>
+    <t>#male probability of maturing at length; logistic curve [slope=0.0644; SM50%=125; source=Working_Turnock_TannerMatureFraction_TCSAM Development_14_Jan_2010.xls</t>
+  </si>
+  <si>
+    <t>#Turnock logistic fit in spr .xls [slope=0.04988; SM50%=123.9126]; estimated probability males maturing to match fraction mature males in survey data; source=Working_Turnock_TannerMatureFraction_TCSAM Development_14_Jan_2010.xls</t>
+  </si>
+  <si>
+    <t>#0.007891858    0.01010468  0.012929876 0.016531784 0.02111562  0.026935625 0.034303557 0.043596606 0.05526313  0.06982371  0.087863876 0.110013766 0.136909375 0.169130732 0.207115576 0.251053688 0.300777022 0.355671649 0.414643854 0.47616795  0.53842397  0.599504155 0.657641049 0.711401293 0.759802953 0.802342448 0.838945038 0.869868833 0.895593951 0.916720447 0.933887584 0.947717736</t>
+  </si>
+  <si>
+    <t>#Zheng probability of maturing from EA analysis (logistic parameters:  a=0.07754, b=130.8540); source=Working_Turnock_TannerMatureFraction_TCSAM Development_14_Jan_2010.xls</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>0.000318096 0.000468672 0.000690476 0.001017144 0.001498129 0.002206059 0.003247428 0.004778022 0.007024938 0.010317536 0.015129865 0.022136567 0.032281743 0.046853667 0.067544225 0.096447172 0.135915269 0.188170915 0.254597749 0.334803396 0.425841285 0.522200603 0.616935439 0.703550097 0.777639107 0.837488783 0.883639993 0.917968582 0.942824832 0.960473719 0.972831716 0.981400772</t>
+  </si>
+  <si>
+    <t>#FRACTION MATURE BY SHELL CONDITION</t>
+  </si>
+  <si>
+    <t>4    #number of factor combinations (sex x shell condition)</t>
+  </si>
+  <si>
+    <t>#female new shell maturity based on 1976-2009 survey data; logistic (r=.14389 ; sm50=74.6) fitted to average proportion mature 1976-2009</t>
+  </si>
+  <si>
+    <t>FEMALE NEW_SHELL</t>
+  </si>
+  <si>
+    <t>#source=Working_FemaleLF_5mm_By_SC-Maturity.xls</t>
+  </si>
+  <si>
+    <t>0.00106 0.00217 0.00445 0.00909 0.01849 0.03724 0.07359 0.14023 0.25087 0.40745 0.58538 0.74352 0.85616 0.92437 0.96168 0.98096 0.99064 0.99542 0.99776 0.99891 0.99947 0.99974 0.99987 0.99994 0.99997 0.99999 0.99999 1.00000 1.00000 1.00000 1.00000 1.00000</t>
+  </si>
+  <si>
+    <t>#male fraction of new shell males mature by size average of 1990-2007</t>
+  </si>
+  <si>
+    <t>MALE NEW_SHELL</t>
+  </si>
+  <si>
+    <t>#source=Working_Turnock_TannerMatureFraction_TCSAM Development_14_Jan_2010.xls</t>
+  </si>
+  <si>
+    <t>0.006822083 0.009389492 0.012910554 0.017728386 0.024299828 0.033224739 0.045275508 0.061419467 0.082820538 0.110798331 0.14671551  0.191764896 0.246648417 0.311191808 0.384015559 0.462439918 0.542767949 0.620931911 0.693284604 0.757226788 0.811463811 0.85588995  0.891250581 0.918758272 0.939778161 0.95562221  0.967442186 0.976192357 0.982633067 0.987353935 0.990803536 0.993318521</t>
+  </si>
+  <si>
+    <t>#female maturity for old shell - assume all are mature</t>
+  </si>
+  <si>
+    <t>FEMALE OLD_SHELL</t>
+  </si>
+  <si>
+    <t>1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0 1.0</t>
+  </si>
+  <si>
+    <t>#male maturity old shell; this is fraction of old shell males mature by size not probability of maturing</t>
+  </si>
+  <si>
+    <t>MALE OLD_SHELL</t>
+  </si>
+  <si>
+    <t>0.530303036 0.530303036 0.530303036 0.530303036 0.530303036 0.530303036 0.530303036 0.530303036 0.609523807 0.598221072 0.638511376 0.736621622 0.789185328 0.847899317 0.842961811 0.843047439 0.861708311 0.872137039 0.909037844 0.950776233 0.964040772 0.962963806 0.986312967 0.980407611 0.952147994 0.989622139 0.996527778 0.988888887 1   1   1   1</t>
+  </si>
+  <si>
+    <t>#cv for mean length female male at min and max length bins</t>
+  </si>
+  <si>
+    <t>2    #number of factor combinations (sex)</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>.05  .05</t>
+  </si>
+  <si>
+    <t>#Timing of fisheries and mating</t>
+  </si>
+  <si>
+    <t>#all set equal to 0.625y = 7.5m from start biological year (01 July) to nominal mating (15 Feb)</t>
+  </si>
+  <si>
+    <t>64 #number of years</t>
+  </si>
+  <si>
+    <t>#yar midPtFisheries  matingTime</t>
+  </si>
+  <si>
+    <t>1949    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1950    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1951    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1952    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1953    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1954    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1955    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1956    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1957    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1958    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1959    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1960    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1961    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1962    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1963    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1964    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1965    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1966    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1967    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1968    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1969    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1970    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1971    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1972    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1973    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1974    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1975    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1976    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1977    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1978    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1979    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1980    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1981    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1982    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1983    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1984    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1985    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1986    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1987    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1988    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1989    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1990    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1991    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1992    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1993    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1994    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1995    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1996    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1997    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1998    0.625   0.625</t>
+  </si>
+  <si>
+    <t>1999    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2000    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2001    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2002    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2003    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2004    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2005    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2006    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2007    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2008    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2009    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2010    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2011    0.625   0.625</t>
+  </si>
+  <si>
+    <t>2012    0.625   0.625</t>
+  </si>
+  <si>
+    <t>#################################################</t>
+  </si>
+  <si>
+    <t>#   TCSAM2014 Tanner Crab Fishery Data File     #</t>
+  </si>
+  <si>
+    <t>FISHERY_DATA     #required keyword</t>
+  </si>
+  <si>
+    <t>TCF    #fishery name</t>
+  </si>
+  <si>
+    <t>TRUE   #has effort data?</t>
+  </si>
+  <si>
+    <t>TRUE   #has retained catch?</t>
+  </si>
+  <si>
+    <t>TRUE   #has observed discard catch</t>
+  </si>
+  <si>
+    <t>TRUE   #has observed total catch</t>
+  </si>
+  <si>
+    <t>#------------EFFORT DATA-----------#</t>
+  </si>
+  <si>
+    <t>EFFORT_DATA  #required keyword</t>
+  </si>
+  <si>
+    <t>32           #number of years</t>
+  </si>
+  <si>
+    <t>1992:2009    #averaging interval</t>
+  </si>
+  <si>
+    <t>THOUSANDS    #potlift units</t>
+  </si>
+  <si>
+    <t>#year   potlifts (1000s)</t>
+  </si>
+  <si>
+    <t>1968    29.8</t>
+  </si>
+  <si>
+    <t>1969    16.4</t>
+  </si>
+  <si>
+    <t>1970    7.3</t>
+  </si>
+  <si>
+    <t>1971    4.26</t>
+  </si>
+  <si>
+    <t>1972    15.73</t>
+  </si>
+  <si>
+    <t>1973    22.014</t>
+  </si>
+  <si>
+    <t>1974    38.462</t>
+  </si>
+  <si>
+    <t>1975    141.206</t>
+  </si>
+  <si>
+    <t>1976    297.471</t>
+  </si>
+  <si>
+    <t>1977    516.35</t>
+  </si>
+  <si>
+    <t>1978    402.697</t>
+  </si>
+  <si>
+    <t>1979    488.434</t>
+  </si>
+  <si>
+    <t>1980    559.626</t>
+  </si>
+  <si>
+    <t>1981    490.099</t>
+  </si>
+  <si>
+    <t>1982    282.006</t>
+  </si>
+  <si>
+    <t>1983    61.357</t>
+  </si>
+  <si>
+    <t>1984    94.532</t>
+  </si>
+  <si>
+    <t>#1985-1986: fishery closed</t>
+  </si>
+  <si>
+    <t>1987    114.384</t>
+  </si>
+  <si>
+    <t>1988    183.692</t>
+  </si>
+  <si>
+    <t>1989    702.783</t>
+  </si>
+  <si>
+    <t>1990    883.441</t>
+  </si>
+  <si>
+    <t>1991    1224.959</t>
+  </si>
+  <si>
+    <t>1992    1201.9</t>
+  </si>
+  <si>
+    <t>1993    576.662</t>
+  </si>
+  <si>
+    <t>1994    249.536</t>
+  </si>
+  <si>
+    <t>1995    248.442</t>
+  </si>
+  <si>
+    <t>1996    149.289</t>
+  </si>
+  <si>
+    <t>#1997-2004: fishery closed</t>
+  </si>
+  <si>
+    <t>2005    3.926</t>
+  </si>
+  <si>
+    <t>2006    17.95</t>
+  </si>
+  <si>
+    <t>2007    34.689</t>
+  </si>
+  <si>
+    <t>2008    21.737</t>
+  </si>
+  <si>
+    <t>2009    6.635</t>
+  </si>
+  <si>
+    <t>#2010-2012: fishery closed</t>
+  </si>
+  <si>
+    <t>#------------RETAINED CATCH DATA------------#</t>
+  </si>
+  <si>
+    <t>CATCH_DATA  #required keyword</t>
+  </si>
+  <si>
+    <t>TRUE #has aggregate catch abundance (numbers)</t>
+  </si>
+  <si>
+    <t>TRUE  #has aggregate catch biomass (weight)</t>
+  </si>
+  <si>
+    <t>TRUE  #has size frequency data</t>
+  </si>
+  <si>
+    <t>#------------NUMBERS-AT-SIZE DATA-----------#</t>
+  </si>
+  <si>
+    <t>SIZE_FREQUENCY_DATA  #required keyword</t>
+  </si>
+  <si>
+    <t>BY_TOTAL    #objective function fitting option</t>
+  </si>
+  <si>
+    <t>MULTINOMIAL #likelihood type</t>
+  </si>
+  <si>
+    <t>19          #number of years of data</t>
+  </si>
+  <si>
+    <t>???         #units</t>
+  </si>
+  <si>
+    <t>33  #NUMBER OF SIZE BIN CUTPTS</t>
+  </si>
+  <si>
+    <t>#SIZE BIN CUTPTS (mm CW)</t>
+  </si>
+  <si>
+    <t>25  30  35  40  45  50  55  60  65  70  75  80  85  90  95  100 105 110 115 120 125 130 135 140 145 150 155 160 165 170 175 180 185</t>
+  </si>
+  <si>
+    <t>#--------------</t>
+  </si>
+  <si>
+    <t>2   #number of shell factor combinations</t>
+  </si>
+  <si>
+    <t>MALE ANY_MATURITY NEW_SHELL</t>
+  </si>
+  <si>
+    <t>#year     ss        27        32        37        42        47        52        57        62        67        72        77        82        87        92        97        102       107       112       117       122       127       132       137       142       147       152       157       162       167       172       177       182</t>
+  </si>
+  <si>
+    <t>1980      89.8      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         3         6         72        625       2052      2237      2148      1906      1278      841       408       178       85</t>
+  </si>
+  <si>
+    <t>1981      76.3      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         2         4         9         20        27        97        1183      2571      2162      1711      1214      745       320       256       48        17</t>
+  </si>
+  <si>
+    <t>1982      91.2      0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         0         1         3         8         11        24        52        838       2283      2166      1873      1232      650       260       94        31        13</t>
+  </si>
+  <si>
+    <t>1983      11.3      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         2         6         106       198       148       108       69        34        6         1         0         0</t>
+  </si>
+  <si>
+    <t>1984      17.1      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         125       294       300       318       297       199       77        35        3         0</t>
+  </si>
+  <si>
+    <t>1988      83.5      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         320       2851      2496      2210      1819      941       446       161       27        6</t>
+  </si>
+  <si>
+    <t>1989      27.8      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         0         2         5         7         19        279       784       701       556       443       283       123       52        13        2</t>
+  </si>
+  <si>
+    <t>1990      200       0         0         0         0         0         0         0         0         0         0         0         0         0         2         0         16        33        39        86        121       222       591       7114      28588     25341     18545     13409     9043      5747      3092      1207      441</t>
+  </si>
+  <si>
+    <t>1991      200       0         0         0         0         0         0         0         0         0         0         0         10        21        18        35        63        53        87        110       187       240       572       7210      28448     25703     20446     14925     9997      5591      2740      873       301</t>
+  </si>
+  <si>
+    <t>1992      200       0         0         0         0         0         0         0         0         0         0         0         0         0         1         4         6         8         21        38        66        139       402       8189      32599     28997     22341     12589     5418      1756      548       151       46</t>
+  </si>
+  <si>
+    <t>1993      200       0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         1         0         6         33        181       3777      14087     14447     14046     10347     6244      2673      1108      258       55</t>
+  </si>
+  <si>
+    <t>1994      186.5     0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         0         2         2         16        64        1675      5560      5708      5339      3785      2261      881       243       44        4</t>
+  </si>
+  <si>
+    <t>1995      10.3      0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         0         0         0         0         0         0         66        125       106       82        63        34        13        4         1         0</t>
+  </si>
+  <si>
+    <t>1996      29.9      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         2         17        91        379       419       420       354       218       112       37        9         4</t>
+  </si>
+  <si>
+    <t>2005      4.8       0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         56        291       206       84        10        1         0         0         0         0</t>
+  </si>
+  <si>
+    <t>2006      19.8      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         36        290       264       204       142       79        28        8         1         0</t>
+  </si>
+  <si>
+    <t>2007      39.3      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         2         0         0         0         0         4         317       1277      862       572       352       185       66        22        3         0</t>
+  </si>
+  <si>
+    <t>2008      23.5      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         2         212       746       748       621       443       226       107       33        7         0</t>
+  </si>
+  <si>
+    <t>2009      96.5      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         337       1446      1831      2292      2688      2595      1827      704       158       25</t>
+  </si>
+  <si>
+    <t>#------</t>
+  </si>
+  <si>
+    <t>MALE ANY_MATURITY OLD_SHELL</t>
+  </si>
+  <si>
+    <t>#year     sample_size         27        32        37        42        47        52        57        62        67        72        77        82        87        92        97        102       107       112       117       122       127       132       137       142       147       152       157       162       167       172       177       182</t>
+  </si>
+  <si>
+    <t>1980      89.8      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         2         11        111       324       284       306       227       126       52        18        7         2</t>
+  </si>
+  <si>
+    <t>1981      76.3      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         1         3         4         105       247       226       144       88        54        32        11        4         5</t>
+  </si>
+  <si>
+    <t>1982      91.2      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         2         2         6         23        503       996       852       683       412       278       128       58        28        7</t>
+  </si>
+  <si>
+    <t>1983      11.3      0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         0         5         1         1         7         9         156       304       212       145       87        36        23        4         5         0</t>
+  </si>
+  <si>
+    <t>1984      17.1      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         2         11        139       241       188       142       90        46        20        10        3         1</t>
+  </si>
+  <si>
+    <t>1988      83.5      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         27        245       242       247       188       110       31        13        0         0</t>
+  </si>
+  <si>
+    <t>1989      27.8      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         0         0         2         6         14        108       242       174       128       95        60        17        5         1         0</t>
+  </si>
+  <si>
+    <t>1990      200       0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         2         4         5         2         4         4         28        695       2048      1500      987       725       492       290       160       69        24</t>
+  </si>
+  <si>
+    <t>1991      200       0         0         0         0         0         0         0         0         0         0         0         0         6         14        8         8         8         6         10        6         18        53        502       2210      1846      1364      1038      726       484       253       96        13</t>
+  </si>
+  <si>
+    <t>1992      200       0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         4         5         11        42        958       3526      2805      2001      1243      719       334       151       46        28</t>
+  </si>
+  <si>
+    <t>1993      200       0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         1         14        364       967       803       721       584       423       257       174       41        8</t>
+  </si>
+  <si>
+    <t>1994      186.5     0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         9         142       564       439       370       261       182       83        20        3         0</t>
+  </si>
+  <si>
+    <t>1995      10.3      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         99        315       214       184       122       65        28        2         1         0</t>
+  </si>
+  <si>
+    <t>1996      29.9      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         1         7         113       408       410       435       428       304       166       67        24        3</t>
+  </si>
+  <si>
+    <t>2005      4.8       0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         5         28        15        6         2         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>2006      19.8      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         1         2         78        429       463       387       287       154       65        15        6         0</t>
+  </si>
+  <si>
+    <t>2007      39.3      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         134       783       532       362       189       113       37        12        3         0</t>
+  </si>
+  <si>
+    <t>2008      23.5      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         26        101       87        57        42        22        7         2         0         0</t>
+  </si>
+  <si>
+    <t>2009      96.5      0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         27        109       91        71        59        29        18        6         2         0</t>
+  </si>
+  <si>
+    <t>#------------OBSERVED DISCARD CATCH DATA------------#</t>
+  </si>
+  <si>
+    <t>FALSE #has aggregate catch abundance (numbers)</t>
+  </si>
+  <si>
+    <t>FALSE #has size frequency data</t>
+  </si>
+  <si>
+    <t>AGGREGATE_BIOMASS #required keyword                                 &lt;-THIS SEEMS TO BE DISCARDS IN 2013 FILE</t>
+  </si>
+  <si>
+    <t>BY_SEX     #objective function fitting option</t>
+  </si>
+  <si>
+    <t>NORM2      #likelihood type</t>
+  </si>
+  <si>
+    <t>10         #number of years</t>
+  </si>
+  <si>
+    <t>#------------OBSERVED TOTAL CATCH DATA------------#</t>
+  </si>
+  <si>
+    <t>FALSE       #has aggregate catch abundance (numbers)</t>
+  </si>
+  <si>
+    <t>FALSE       #has aggregate catch biomass (weight)</t>
+  </si>
+  <si>
+    <t>TRUE        #has size frequency data</t>
+  </si>
+  <si>
+    <t>BY_SEX      #objective function fitting option</t>
+  </si>
+  <si>
+    <t>11          #number of years of data</t>
+  </si>
+  <si>
+    <t>33 #NUMBER OF SIZE BIN CUTPTS</t>
+  </si>
+  <si>
+    <t>3   #number of factor combinations (sex x shell condition)</t>
+  </si>
+  <si>
+    <t>#----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMALE ANY_MATURITY ANY_SHELL  </t>
+  </si>
+  <si>
+    <t>1991      20.1      0         0         0         0         0         0         0         0         1         16        84        259       511       752       719       428       151       47        13        3         0         0         0         0         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>1992      9.3       0         0         0         0         0         0         0         0         0         13        33        74        160       245       344       308       140       46        9         2         0         0         0         0         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>1993      19.4      0         0         0         0         0         0         0         2         21        74        167       276       419       565       572       497       202       54        20        2         0         0         0         0         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>1994      14.4      0         0         0         0         1         1         1         23        29        66        99        263       349       437       376       314       116       44        9         3         1         0         0         0         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>1995      21        0         0         0         0         0         0         0         0         1         22        105       338       562       759       681       449       156       28        13        3         1         0         1         0         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>1996      1.1       0         0         0         0         0         0         0         0         1         1         5         11        22        33        50        32        8         4         0         1         0         0         0         0         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>2005      5.9       0         0         0         0         0         0         0         0         0         13        45        117       173       289       164       70        5         3         0         0         0         0         0         0         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>2006      29.9      0         1         0         0         0         0         0         0         2         47        295       536       578       938       1040      696       240       50        9         0         0         0         0         0         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>2007      10.6      0         0         1         0         0         0         0         1         2         26        99        172       272       436       384       143       34        2         3         1         1         0         0         0         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>2008      2         0         0         0         0         0         0         0         0         0         2         15        22        50        83        73        34        7         2         4         0         0         0         0         2         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>2009      1         0         0         0         0         0         0         0         0         0         1         0         5         14        26        26        46        19        8         0         1         0         1         0         0         0         0         0         0         0         0         0         0</t>
+  </si>
+  <si>
+    <t>MALE  ANY_MATURITY NEW_SHELL  #TOTAL (discards + retained)</t>
+  </si>
+  <si>
+    <t>1991      90.3      0         0         0         0         0         0         0         0         0         1         0         11        32        60        117       173       218       325       544       901       1424      1924      1877      1317      921       796       525       313       132       54        12        3</t>
+  </si>
+  <si>
+    <t>1992      101.2     0         0         0         0         0         0         0         0         0         0         0         7         10        30        66        139       188       318       514       991       1522      2009      2229      1840      1439      858       396       124       19        6         2         0</t>
+  </si>
+  <si>
+    <t>1993      91.1      0         0         0         0         0         0         0         0         0         0         3         18        25        52        77        110       139       304       550       912       1270      1705      1677      1307      1101      1022      629       255       65        19        0         1</t>
+  </si>
+  <si>
+    <t>1994      39.1      0         0         0         0         0         0         0         0         2         0         0         2         12        18        28        59        110       142       260       436       571       743       674       496       448       380       266       209       55        37        1         0</t>
+  </si>
+  <si>
+    <t>1995      37.7      0         0         0         0         0         0         0         1         0         3         1         3         3         13        35        32        53        71        104       171       218       344       268       127       107       82        63        35        13        4         1         0</t>
+  </si>
+  <si>
+    <t>1996      2.4       0         0         0         0         0         0         0         0         0         0         0         0         0         1         0         2         5         4         6         7         6         6         1         6         1         0         1         0         0         0         1         0</t>
+  </si>
+  <si>
+    <t>2005      104.2     0         0         0         0         0         0         0         0         0         0         4         6         19        77        144       250       408       712       978       1393      1733      2224      2346      1894      978       332       76        5         1         0         0         0</t>
+  </si>
+  <si>
+    <t>2006      163.4     0         1         0         0         0         0         0         1         0         3         7         6         28        121       229       413       603       806       1128      1380      1705      2047      2149      1553      1021      668       421       232       94        31        4         1</t>
+  </si>
+  <si>
+    <t>2007      175.9     0         0         0         0         0         0         0         0         0         1         2         17        32        128       299       592       938       1484      2145      2915      3441      3533      2895      1689      1101      639       377       177       68        23        2         1</t>
+  </si>
+  <si>
+    <t>2008      133.5     0         0         0         0         0         0         0         0         0         0         0         1         7         18        40        90        138       265       414       695       1162      1778      2482      2940      2648      2206      1443      862       289       79        14        0</t>
+  </si>
+  <si>
+    <t>2009      109.4     0         0         0         0         0         0         0         0         0         0         1         0         5         4         19        30        70        95        128       244       343       506       966       1338      1702      2156      2526      2429      1728      672       152       24</t>
+  </si>
+  <si>
+    <t>MALE ANY_MATURITY OLD_SHELL   #TOTAL (discards + retained)</t>
+  </si>
+  <si>
+    <t>1991      90.3      0         0         0         0         0         0         0         0         0         2         2         1         12        25        44        39        65        110       165       176       260       285       233       120       65        50        25        15        10        1         1         0</t>
+  </si>
+  <si>
+    <t>1992      101.2     0         0         0         0         0         0         0         0         0         0         2         7         6         18        31        70        74        139       170       295       436       412       310       122       76        69        31        17        9         3         3         0</t>
+  </si>
+  <si>
+    <t>1993      91.1      0         0         0         0         0         0         0         0         0         0         0         3         11        16        33        55        81        134       210       356       413       440       287       108       54        41        16        8         3         1         0         0</t>
+  </si>
+  <si>
+    <t>1994      39.1      0         0         0         0         0         0         0         0         0         0         0         0         2         4         8         12        26        29        55        83        101       132       103       72        72        49        35        45        11        4         0         0</t>
+  </si>
+  <si>
+    <t>1995      37.7      0         0         0         0         0         0         0         0         1         1         2         5         6         14        37        46        61        137       215       352       567       771       678       323       215       185       124       65        29        2         1         0</t>
+  </si>
+  <si>
+    <t>1996      2.4       0         0         0         0         0         0         0         0         0         0         0         0         0         0         0         3         9         17        11        28        56        53        49        38        17        8         11        4         1         0         0         0</t>
+  </si>
+  <si>
+    <t>2005      104.2     0         0         0         0         0         0         0         0         0         2         1         5         9         19        48        73        127       212       245       290       231       206       178       123       73        20        13        4         0         0         0         0</t>
+  </si>
+  <si>
+    <t>2006      163.4     0         0         0         0         0         0         0         0         0         1         2         5         19        45        104       178       259       454       557       747       942       1258      1462      1248      935       623       394       218       98        20        4         1</t>
+  </si>
+  <si>
+    <t>2007      175.9     0         0         0         0         0         0         0         0         0         2         0         1         2         10        29        39        89        180       273       388       471       489       497       392       312       206       134       50        16        11        0         1</t>
+  </si>
+  <si>
+    <t>2008      133.5     0         0         0         0         0         0         0         0         0         0         1         1         7         12        24        30        52        92        142       183       208       300       340       288       211       151       98        54        24        8         0         0</t>
+  </si>
+  <si>
+    <t>2009      109.4     0         0         0         0         0         0         0         0         0         0         0         0         2         9         14        27        40        56        61        91        109       139       152       110       91        73        60        30        19        6         2         0</t>
   </si>
 </sst>
 </file>
@@ -89,9 +933,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,11 +952,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,16 +985,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -159,7 +1041,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.127576854617311"/>
+          <c:y val="0.0364656381486676"/>
+          <c:w val="0.821417322834646"/>
+          <c:h val="0.89243586487173"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -415,11 +1307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109147320"/>
-        <c:axId val="2109150488"/>
+        <c:axId val="2047307064"/>
+        <c:axId val="2047069416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109147320"/>
+        <c:axId val="2047307064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,30 +1321,74 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109150488"/>
+        <c:crossAx val="2047069416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109150488"/>
+        <c:axId val="2047069416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Numbers retained</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109147320"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047307064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.683797779587896"/>
+          <c:y val="0.191328201786838"/>
+          <c:w val="0.0978114158144025"/>
+          <c:h val="0.0563335578845071"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -749,8 +1685,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111580072"/>
-        <c:axId val="2111582984"/>
+        <c:axId val="2047170440"/>
+        <c:axId val="2047173432"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1007,11 +1943,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126442488"/>
-        <c:axId val="2110079560"/>
+        <c:axId val="2047206984"/>
+        <c:axId val="2047358696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111580072"/>
+        <c:axId val="2047170440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,12 +1957,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111582984"/>
+        <c:crossAx val="2047173432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111582984"/>
+        <c:axId val="2047173432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,12 +1992,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111580072"/>
+        <c:crossAx val="2047170440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110079560"/>
+        <c:axId val="2047358696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,12 +2026,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126442488"/>
+        <c:crossAx val="2047206984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126442488"/>
+        <c:axId val="2047206984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +2041,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110079560"/>
+        <c:crossAx val="2047358696"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1417,8 +2354,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126125992"/>
-        <c:axId val="2126284984"/>
+        <c:axId val="2083502840"/>
+        <c:axId val="2085133912"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1675,11 +2612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126016376"/>
-        <c:axId val="2126220984"/>
+        <c:axId val="2077427304"/>
+        <c:axId val="2085117704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126125992"/>
+        <c:axId val="2083502840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,12 +2626,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126284984"/>
+        <c:crossAx val="2085133912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126284984"/>
+        <c:axId val="2085133912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,19 +2654,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126125992"/>
+        <c:crossAx val="2083502840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126220984"/>
+        <c:axId val="2085117704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,19 +2687,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126016376"/>
+        <c:crossAx val="2077427304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126016376"/>
+        <c:axId val="2077427304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +2708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126220984"/>
+        <c:crossAx val="2085117704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1809,15 +2744,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2235,10 +3170,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2281,16 +3871,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -2304,16 +3894,16 @@
         <v>1965</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1558362</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D8">
-        <v>1558362</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>1558362</v>
@@ -2327,16 +3917,16 @@
         <v>1966</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1981280</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D9">
-        <v>1981280</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>1981280</v>
@@ -2350,16 +3940,16 @@
         <v>1967</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>11032652</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D10">
-        <v>11032652</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>11032652</v>
@@ -2373,16 +3963,16 @@
         <v>1968</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>14576228</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D11">
-        <v>14576228</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>14576228</v>
@@ -2396,16 +3986,16 @@
         <v>1969</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>22394986</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D12">
-        <v>22394986</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>22394986</v>
@@ -2419,16 +4009,16 @@
         <v>1970</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>22004597</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D13">
-        <v>22004597</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>22004597</v>
@@ -2442,16 +4032,16 @@
         <v>1971</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>17820914</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D14">
-        <v>17820914</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>17820914</v>
@@ -2465,16 +4055,16 @@
         <v>1972</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>14906645</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D15">
-        <v>14906645</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>14906645</v>
@@ -2488,16 +4078,16 @@
         <v>1973</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>12000825</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D16">
-        <v>12000825</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>12000825</v>
@@ -2511,16 +4101,16 @@
         <v>1974</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>13404770</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D17">
-        <v>13404770</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>13404770</v>
@@ -2534,16 +4124,16 @@
         <v>1975</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>15603036</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D18">
-        <v>15603036</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>15603036</v>
@@ -2557,16 +4147,16 @@
         <v>1976</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>26120508</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D19">
-        <v>26120508</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>26120508</v>
@@ -2580,16 +4170,16 @@
         <v>1977</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>26821995</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D20">
-        <v>26821995</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>26821995</v>
@@ -2603,16 +4193,16 @@
         <v>1978</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>18780962</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D21">
-        <v>18780962</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>18780962</v>
@@ -2626,16 +4216,16 @@
         <v>1979</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>16805611</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D22">
-        <v>16805611</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>16805611</v>
@@ -2649,16 +4239,16 @@
         <v>1980</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>12928112</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D23">
-        <v>12928112</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>12928112</v>
@@ -2672,16 +4262,16 @@
         <v>1981</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4830980</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D24">
-        <v>4830980</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>4830980</v>
@@ -2695,16 +4285,16 @@
         <v>1982</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2286756</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D25">
-        <v>2286756</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>2286756</v>
@@ -2718,16 +4308,16 @@
         <v>1983</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>516877</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D26">
-        <v>516877</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>516877</v>
@@ -2741,16 +4331,16 @@
         <v>1984</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1272501</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D27">
-        <v>1272501</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <v>1272501</v>
@@ -2764,16 +4354,16 @@
         <v>1987</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>957318</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D28">
-        <v>957318</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <v>957318</v>
@@ -2787,16 +4377,16 @@
         <v>1988</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2894480</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D29">
-        <v>2894480</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
         <v>2894480</v>
@@ -2810,16 +4400,16 @@
         <v>1989</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>10672607</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D30">
-        <v>10672607</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
         <v>10672607</v>
@@ -2833,16 +4423,16 @@
         <v>1990</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>16609286</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D31">
-        <v>16609286</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
         <v>16609286</v>
@@ -2856,16 +4446,16 @@
         <v>1991</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>12924102</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D32">
-        <v>12924102</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
         <v>12924102</v>
@@ -2879,16 +4469,16 @@
         <v>1992</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>15265865</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D33">
-        <v>15265865</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
         <v>15265865</v>
@@ -2902,16 +4492,16 @@
         <v>1993</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>7236054</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D34">
-        <v>7236054</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>7236054</v>
@@ -2925,16 +4515,16 @@
         <v>1994</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3351639</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D35">
-        <v>3351639</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>3351639</v>
@@ -2948,16 +4538,16 @@
         <v>1995</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1881525</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D36">
-        <v>1881525</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>1881525</v>
@@ -2971,16 +4561,16 @@
         <v>1996</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>734303</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D37">
-        <v>734303</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>734303</v>
@@ -2994,16 +4584,16 @@
         <v>2005</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>443865</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D38">
-        <v>443865</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
         <v>443865</v>
@@ -3017,16 +4607,16 @@
         <v>2006</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>926101</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D39">
-        <v>926101</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
         <v>926101</v>
@@ -3040,16 +4630,16 @@
         <v>2007</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>927164</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D40">
-        <v>927164</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>927164</v>
@@ -3063,16 +4653,16 @@
         <v>2008</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>830363</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D41">
-        <v>830363</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
         <v>830363</v>
@@ -3086,16 +4676,16 @@
         <v>2009</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>485963</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D42">
-        <v>485963</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>485963</v>
@@ -3106,1028 +4696,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>1965</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>4.24</v>
-      </c>
-      <c r="E8">
-        <v>0.05</v>
-      </c>
-      <c r="F8">
-        <v>4.24</v>
-      </c>
-      <c r="G8">
-        <v>0.05</v>
-      </c>
-      <c r="I8">
-        <f>F8/2.204</f>
-        <v>1.9237749546279492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>1966</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>5.39</v>
-      </c>
-      <c r="E9">
-        <v>0.05</v>
-      </c>
-      <c r="F9">
-        <v>5.39</v>
-      </c>
-      <c r="G9">
-        <v>0.05</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9:I41" si="0">F9/2.204</f>
-        <v>2.4455535390199632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>1967</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>29.98</v>
-      </c>
-      <c r="E10">
-        <v>0.05</v>
-      </c>
-      <c r="F10">
-        <v>29.98</v>
-      </c>
-      <c r="G10">
-        <v>0.05</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>13.602540834845733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>1968</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>39.69</v>
-      </c>
-      <c r="E11">
-        <v>0.05</v>
-      </c>
-      <c r="F11">
-        <v>39.69</v>
-      </c>
-      <c r="G11">
-        <v>0.05</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>18.008166969147002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>1969</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>60.6</v>
-      </c>
-      <c r="E12">
-        <v>0.05</v>
-      </c>
-      <c r="F12">
-        <v>60.6</v>
-      </c>
-      <c r="G12">
-        <v>0.05</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>27.495462794918328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>1970</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>56.2</v>
-      </c>
-      <c r="E13">
-        <v>0.05</v>
-      </c>
-      <c r="F13">
-        <v>56.2</v>
-      </c>
-      <c r="G13">
-        <v>0.05</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>25.499092558983666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>1971</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>45.66</v>
-      </c>
-      <c r="E14">
-        <v>0.05</v>
-      </c>
-      <c r="F14">
-        <v>45.66</v>
-      </c>
-      <c r="G14">
-        <v>0.05</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>20.716878402903809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>1972</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>37.270000000000003</v>
-      </c>
-      <c r="E15">
-        <v>0.05</v>
-      </c>
-      <c r="F15">
-        <v>37.270000000000003</v>
-      </c>
-      <c r="G15">
-        <v>0.05</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>16.91016333938294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>1973</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>28.72</v>
-      </c>
-      <c r="E16">
-        <v>0.05</v>
-      </c>
-      <c r="F16">
-        <v>28.72</v>
-      </c>
-      <c r="G16">
-        <v>0.05</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>13.030852994555353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>1974</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>33.6</v>
-      </c>
-      <c r="E17">
-        <v>0.05</v>
-      </c>
-      <c r="F17">
-        <v>33.6</v>
-      </c>
-      <c r="G17">
-        <v>0.05</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>15.245009074410163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>1975</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>38.92</v>
-      </c>
-      <c r="E18">
-        <v>0.05</v>
-      </c>
-      <c r="F18">
-        <v>38.92</v>
-      </c>
-      <c r="G18">
-        <v>0.05</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>17.658802177858437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>1976</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>66.17</v>
-      </c>
-      <c r="E19">
-        <v>0.05</v>
-      </c>
-      <c r="F19">
-        <v>66.17</v>
-      </c>
-      <c r="G19">
-        <v>0.05</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>30.022686025408348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>1977</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>78.319999999999993</v>
-      </c>
-      <c r="E20">
-        <v>0.05</v>
-      </c>
-      <c r="F20">
-        <v>78.319999999999993</v>
-      </c>
-      <c r="G20">
-        <v>0.05</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>35.535390199637014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>1978</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>46.5</v>
-      </c>
-      <c r="E21">
-        <v>0.05</v>
-      </c>
-      <c r="F21">
-        <v>46.5</v>
-      </c>
-      <c r="G21">
-        <v>0.05</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>21.098003629764065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>1979</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>41.9</v>
-      </c>
-      <c r="E22">
-        <v>0.05</v>
-      </c>
-      <c r="F22">
-        <v>41.9</v>
-      </c>
-      <c r="G22">
-        <v>0.05</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>19.010889292196005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
-        <v>1980</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>29.6</v>
-      </c>
-      <c r="E23">
-        <v>0.05</v>
-      </c>
-      <c r="F23">
-        <v>29.6</v>
-      </c>
-      <c r="G23">
-        <v>0.05</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>13.430127041742287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>1981</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>0.05</v>
-      </c>
-      <c r="F24">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>0.05</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>4.9909255898366602</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>1982</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>5.27</v>
-      </c>
-      <c r="E25">
-        <v>0.05</v>
-      </c>
-      <c r="F25">
-        <v>5.27</v>
-      </c>
-      <c r="G25">
-        <v>0.05</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>2.3911070780399268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>1983</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1.21</v>
-      </c>
-      <c r="E26">
-        <v>0.05</v>
-      </c>
-      <c r="F26">
-        <v>1.21</v>
-      </c>
-      <c r="G26">
-        <v>0.05</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>0.54900181488203259</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
-        <v>1984</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>3.15</v>
-      </c>
-      <c r="E27">
-        <v>0.05</v>
-      </c>
-      <c r="F27">
-        <v>3.15</v>
-      </c>
-      <c r="G27">
-        <v>0.05</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>1.4292196007259526</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28">
-        <v>1987</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E28">
-        <v>0.05</v>
-      </c>
-      <c r="F28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G28">
-        <v>0.05</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>0.99818511796733211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29">
-        <v>1988</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>7.01</v>
-      </c>
-      <c r="E29">
-        <v>0.05</v>
-      </c>
-      <c r="F29">
-        <v>7.01</v>
-      </c>
-      <c r="G29">
-        <v>0.05</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>3.1805807622504534</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
-        <v>1989</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>24.5</v>
-      </c>
-      <c r="E30">
-        <v>0.05</v>
-      </c>
-      <c r="F30">
-        <v>24.5</v>
-      </c>
-      <c r="G30">
-        <v>0.05</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>11.116152450090743</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
-        <v>1990</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>40.1</v>
-      </c>
-      <c r="E31">
-        <v>0.05</v>
-      </c>
-      <c r="F31">
-        <v>40.1</v>
-      </c>
-      <c r="G31">
-        <v>0.05</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>18.194192377495462</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
-        <v>1991</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>31.8</v>
-      </c>
-      <c r="E32">
-        <v>0.05</v>
-      </c>
-      <c r="F32">
-        <v>31.8</v>
-      </c>
-      <c r="G32">
-        <v>0.05</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>14.428312159709618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>1992</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>35.1</v>
-      </c>
-      <c r="E33">
-        <v>0.05</v>
-      </c>
-      <c r="F33">
-        <v>35.1</v>
-      </c>
-      <c r="G33">
-        <v>0.05</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>15.925589836660617</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>1993</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="E34">
-        <v>0.05</v>
-      </c>
-      <c r="F34">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="G34">
-        <v>0.05</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>7.6678765880217776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
-        <v>1994</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>7.8</v>
-      </c>
-      <c r="E35">
-        <v>0.05</v>
-      </c>
-      <c r="F35">
-        <v>7.8</v>
-      </c>
-      <c r="G35">
-        <v>0.05</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>3.5390199637023589</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
-        <v>1995</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="E36">
-        <v>0.05</v>
-      </c>
-      <c r="F36">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="G36">
-        <v>0.05</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>1.9192377495462796</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>1996</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1.81</v>
-      </c>
-      <c r="E37">
-        <v>0.05</v>
-      </c>
-      <c r="F37">
-        <v>1.81</v>
-      </c>
-      <c r="G37">
-        <v>0.05</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>0.82123411978221417</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
-        <v>2005</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0.95</v>
-      </c>
-      <c r="E38">
-        <v>0.05</v>
-      </c>
-      <c r="F38">
-        <v>0.95</v>
-      </c>
-      <c r="G38">
-        <v>0.05</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>0.43103448275862061</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>2006</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>2.12</v>
-      </c>
-      <c r="E39">
-        <v>0.05</v>
-      </c>
-      <c r="F39">
-        <v>2.12</v>
-      </c>
-      <c r="G39">
-        <v>0.05</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>0.96188747731397461</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>2007</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>2.11</v>
-      </c>
-      <c r="E40">
-        <v>0.05</v>
-      </c>
-      <c r="F40">
-        <v>2.11</v>
-      </c>
-      <c r="G40">
-        <v>0.05</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>0.95735027223230473</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>2008</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1.94</v>
-      </c>
-      <c r="E41">
-        <v>0.05</v>
-      </c>
-      <c r="F41">
-        <v>1.94</v>
-      </c>
-      <c r="G41">
-        <v>0.05</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="0"/>
-        <v>0.88021778584392008</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>2009</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1.3283560000000001</v>
-      </c>
-      <c r="E42">
-        <v>0.05</v>
-      </c>
-      <c r="F42">
-        <v>1.3283560000000001</v>
-      </c>
-      <c r="G42">
-        <v>0.05</v>
-      </c>
-      <c r="I42">
-        <f>F42/2.204</f>
-        <v>0.60270235934664251</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4139,10 +4708,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4169,12 +4738,12 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4182,19 +4751,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -4205,13 +4774,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4220,25 +4789,28 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.1</v>
+        <v>4.24</v>
       </c>
       <c r="G8">
         <v>0.05</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I8">
         <f>F8/2.204</f>
-        <v>17.740471869328491</v>
+        <v>1.9237749546279492</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4247,25 +4819,28 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>53.9</v>
+        <v>5.39</v>
       </c>
       <c r="G9">
         <v>0.05</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I41" si="0">F9/2.204</f>
-        <v>24.455535390199636</v>
+        <v>2.4455535390199632</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>29.98</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4274,25 +4849,28 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.74</v>
+        <v>29.98</v>
       </c>
       <c r="G10">
         <v>0.05</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>9.4101633393829385</v>
+        <v>13.602540834845733</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>39.69</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4301,25 +4879,28 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.36</v>
+        <v>39.69</v>
       </c>
       <c r="G11">
         <v>0.05</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>4.7005444646097994</v>
+        <v>18.008166969147002</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>60.6</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4328,25 +4909,28 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>6.12</v>
+        <v>60.6</v>
       </c>
       <c r="G12">
         <v>0.05</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>2.7767695099818508</v>
+        <v>27.495462794918328</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>56.2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4355,25 +4939,28 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.12</v>
+        <v>56.2</v>
       </c>
       <c r="G13">
         <v>0.05</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>1.8693284936479129</v>
+        <v>25.499092558983666</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>45.66</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4382,25 +4969,28 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>7.49</v>
+        <v>45.66</v>
       </c>
       <c r="G14">
         <v>0.05</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>3.3983666061705988</v>
+        <v>20.716878402903809</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4409,25 +4999,28 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.66</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="G15">
         <v>0.05</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>2.114337568058076</v>
+        <v>16.91016333938294</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>1981</v>
+        <v>1973</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>28.72</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4436,25 +5029,28 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.25</v>
+        <v>28.72</v>
       </c>
       <c r="G16">
         <v>0.05</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>1.4745916515426496</v>
+        <v>13.030852994555353</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>1982</v>
+        <v>1974</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4463,25 +5059,28 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.99</v>
+        <v>33.6</v>
       </c>
       <c r="G17">
         <v>0.05</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>0.44918330308529941</v>
+        <v>15.245009074410163</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>38.92</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4490,25 +5089,28 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.48</v>
+        <v>38.92</v>
       </c>
       <c r="G18">
         <v>0.05</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>0.67150635208711429</v>
+        <v>17.658802177858437</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>66.17</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4517,25 +5119,28 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.42</v>
+        <v>66.17</v>
       </c>
       <c r="G19">
         <v>0.05</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>0.64428312159709611</v>
+        <v>30.022686025408348</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>78.319999999999993</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4544,25 +5149,28 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.88</v>
+        <v>78.319999999999993</v>
       </c>
       <c r="G20">
         <v>0.05</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>0.39927404718693282</v>
+        <v>35.535390199637014</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4571,25 +5179,28 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.43</v>
+        <v>46.5</v>
       </c>
       <c r="G21">
         <v>0.05</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>0.64882032667876577</v>
+        <v>21.098003629764065</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>1987</v>
+        <v>1979</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>41.9</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4598,25 +5209,28 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.41</v>
+        <v>41.9</v>
       </c>
       <c r="G22">
         <v>0.05</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>0.63974591651542645</v>
+        <v>19.010889292196005</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4625,25 +5239,28 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.02</v>
+        <v>29.6</v>
       </c>
       <c r="G23">
         <v>0.05</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.4627949183303085</v>
+        <v>13.430127041742287</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4652,25 +5269,28 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.48</v>
+        <v>11</v>
       </c>
       <c r="G24">
         <v>0.05</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0.67150635208711429</v>
+        <v>4.9909255898366602</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4679,25 +5299,28 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.08</v>
+        <v>5.27</v>
       </c>
       <c r="G25">
         <v>0.05</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0.94373865698729575</v>
+        <v>2.3911070780399268</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>1991</v>
+        <v>1983</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4706,25 +5329,28 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>5.61</v>
+        <v>1.21</v>
       </c>
       <c r="G26">
         <v>0.05</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>2.545372050816697</v>
+        <v>0.54900181488203259</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4733,25 +5359,28 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>6.08</v>
+        <v>3.15</v>
       </c>
       <c r="G27">
         <v>0.05</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>2.7586206896551722</v>
+        <v>1.4292196007259526</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4760,25 +5389,28 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3.88</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G28">
         <v>0.05</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>1.7604355716878402</v>
+        <v>0.99818511796733211</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>7.01</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4787,25 +5419,28 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4.62</v>
+        <v>7.01</v>
       </c>
       <c r="G29">
         <v>0.05</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>2.0961887477313974</v>
+        <v>3.1805807622504534</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4814,25 +5449,28 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>3.36</v>
+        <v>24.5</v>
       </c>
       <c r="G30">
         <v>0.05</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>1.5245009074410161</v>
+        <v>11.116152450090743</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>40.1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4841,25 +5479,28 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>3.52</v>
+        <v>40.1</v>
       </c>
       <c r="G31">
         <v>0.05</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>1.5970961887477313</v>
+        <v>18.194192377495462</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4868,25 +5509,28 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2.6</v>
+        <v>31.8</v>
       </c>
       <c r="G32">
         <v>0.05</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>1.1796733212341197</v>
+        <v>14.428312159709618</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4895,25 +5539,28 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>2.06</v>
+        <v>35.1</v>
       </c>
       <c r="G33">
         <v>0.05</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>0.93466424682395643</v>
+        <v>15.925589836660617</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4922,25 +5569,28 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.39</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G34">
         <v>0.05</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>0.63067150635208702</v>
+        <v>7.6678765880217776</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4949,25 +5599,28 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.63</v>
+        <v>7.8</v>
       </c>
       <c r="G35">
         <v>0.05</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>0.73956442831215963</v>
+        <v>3.5390199637023589</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4976,25 +5629,28 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.61</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G36">
         <v>0.05</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>1.1842105263157894</v>
+        <v>1.9192377495462796</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5003,25 +5659,28 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="G37">
         <v>0.05</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>0.72141560798548088</v>
+        <v>0.82123411978221417</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5030,25 +5689,28 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G38">
         <v>0.05</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>0.42196007259528129</v>
+        <v>0.43103448275862061</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5057,25 +5719,28 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.49</v>
+        <v>2.12</v>
       </c>
       <c r="G39">
         <v>0.05</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>0.67604355716878395</v>
+        <v>0.96188747731397461</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5084,25 +5749,28 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.37</v>
+        <v>2.11</v>
       </c>
       <c r="G40">
         <v>0.05</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>0.6215970961887477</v>
+        <v>0.95735027223230473</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5111,25 +5779,28 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="G41">
         <v>0.05</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>0.71687840290381122</v>
+        <v>0.88021778584392008</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1.3283560000000001</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5138,133 +5809,22 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.53</v>
+        <v>1.3283560000000001</v>
       </c>
       <c r="G42">
         <v>0.05</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I42">
         <f>F42/2.204</f>
-        <v>0.6941923774954627</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>2008</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1.17</v>
-      </c>
-      <c r="G43">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>2009</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0.70844300000000004</v>
-      </c>
-      <c r="G44">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>2010</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0.47884100000000002</v>
-      </c>
-      <c r="G45">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>2011</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0.45822600000000002</v>
-      </c>
-      <c r="G46">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>2012</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0.24763640000000001</v>
-      </c>
-      <c r="G47">
-        <v>0.05</v>
+        <v>0.60270235934664251</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5276,13 +5836,4149 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1973</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>39.1</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <f>F8/2.204</f>
+        <v>17.740471869328491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>1974</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>53.9</v>
+      </c>
+      <c r="G9">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I41" si="0">F9/2.204</f>
+        <v>24.455535390199636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>1975</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>20.74</v>
+      </c>
+      <c r="G10">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>9.4101633393829385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>1976</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>10.36</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>4.7005444646097994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>1977</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>6.12</v>
+      </c>
+      <c r="G12">
+        <v>0.05</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2.7767695099818508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>1978</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4.12</v>
+      </c>
+      <c r="G13">
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1.8693284936479129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>1979</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>7.49</v>
+      </c>
+      <c r="G14">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>3.3983666061705988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>1980</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4.66</v>
+      </c>
+      <c r="G15">
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2.114337568058076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>1981</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>3.25</v>
+      </c>
+      <c r="G16">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1.4745916515426496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>1982</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.99</v>
+      </c>
+      <c r="G17">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.44918330308529941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>1983</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.48</v>
+      </c>
+      <c r="G18">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.67150635208711429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>1984</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.42</v>
+      </c>
+      <c r="G19">
+        <v>0.05</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.64428312159709611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>1985</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.88</v>
+      </c>
+      <c r="G20">
+        <v>0.05</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.39927404718693282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>1986</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.43</v>
+      </c>
+      <c r="G21">
+        <v>0.05</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0.64882032667876577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>1987</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.41</v>
+      </c>
+      <c r="G22">
+        <v>0.05</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0.63974591651542645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>1988</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.02</v>
+      </c>
+      <c r="G23">
+        <v>0.05</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0.4627949183303085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>1989</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.48</v>
+      </c>
+      <c r="G24">
+        <v>0.05</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.67150635208711429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>1990</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2.08</v>
+      </c>
+      <c r="G25">
+        <v>0.05</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.94373865698729575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>1991</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>5.61</v>
+      </c>
+      <c r="G26">
+        <v>0.05</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>2.545372050816697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>1992</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>6.08</v>
+      </c>
+      <c r="G27">
+        <v>0.05</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>2.7586206896551722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>1993</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>3.88</v>
+      </c>
+      <c r="G28">
+        <v>0.05</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1.7604355716878402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>1994</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>4.62</v>
+      </c>
+      <c r="G29">
+        <v>0.05</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>2.0961887477313974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>1995</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>3.36</v>
+      </c>
+      <c r="G30">
+        <v>0.05</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1.5245009074410161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>1996</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>3.52</v>
+      </c>
+      <c r="G31">
+        <v>0.05</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1.5970961887477313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>1997</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2.6</v>
+      </c>
+      <c r="G32">
+        <v>0.05</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>1.1796733212341197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>1998</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2.06</v>
+      </c>
+      <c r="G33">
+        <v>0.05</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0.93466424682395643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>1999</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1.39</v>
+      </c>
+      <c r="G34">
+        <v>0.05</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0.63067150635208702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>2000</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1.63</v>
+      </c>
+      <c r="G35">
+        <v>0.05</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0.73956442831215963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>2001</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2.61</v>
+      </c>
+      <c r="G36">
+        <v>0.05</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>1.1842105263157894</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>2002</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1.59</v>
+      </c>
+      <c r="G37">
+        <v>0.05</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0.72141560798548088</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>2003</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0.93</v>
+      </c>
+      <c r="G38">
+        <v>0.05</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0.42196007259528129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>2004</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1.49</v>
+      </c>
+      <c r="G39">
+        <v>0.05</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0.67604355716878395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>2005</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1.37</v>
+      </c>
+      <c r="G40">
+        <v>0.05</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0.6215970961887477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>2006</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1.58</v>
+      </c>
+      <c r="G41">
+        <v>0.05</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0.71687840290381122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>2007</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1.53</v>
+      </c>
+      <c r="G42">
+        <v>0.05</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <f>F42/2.204</f>
+        <v>0.6941923774954627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>2008</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1.17</v>
+      </c>
+      <c r="G43">
+        <v>0.05</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43:I47" si="1">F43/2.204</f>
+        <v>0.53085299455535384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>2009</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.70844300000000004</v>
+      </c>
+      <c r="G44">
+        <v>0.05</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0.3214351179673321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>2010</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.47884100000000002</v>
+      </c>
+      <c r="G45">
+        <v>0.05</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0.21725998185117967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>2011</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.45822600000000002</v>
+      </c>
+      <c r="G46">
+        <v>0.05</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0.2079065335753176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>2012</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.24763640000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.05</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>0.11235771324863883</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G272"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:A171"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>1965</v>
+      </c>
+      <c r="B63">
+        <v>1558362</v>
+      </c>
+      <c r="C63">
+        <v>0.05</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1558362</v>
+      </c>
+      <c r="G63">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>1966</v>
+      </c>
+      <c r="B64">
+        <v>1981280</v>
+      </c>
+      <c r="C64">
+        <v>0.05</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1981280</v>
+      </c>
+      <c r="G64">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>1967</v>
+      </c>
+      <c r="B65">
+        <v>11032652</v>
+      </c>
+      <c r="C65">
+        <v>0.05</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>11032652</v>
+      </c>
+      <c r="G65">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>1968</v>
+      </c>
+      <c r="B66">
+        <v>14576228</v>
+      </c>
+      <c r="C66">
+        <v>0.05</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>14576228</v>
+      </c>
+      <c r="G66">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>1969</v>
+      </c>
+      <c r="B67">
+        <v>22394986</v>
+      </c>
+      <c r="C67">
+        <v>0.05</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>22394986</v>
+      </c>
+      <c r="G67">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>1970</v>
+      </c>
+      <c r="B68">
+        <v>22004597</v>
+      </c>
+      <c r="C68">
+        <v>0.05</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>22004597</v>
+      </c>
+      <c r="G68">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>1971</v>
+      </c>
+      <c r="B69">
+        <v>17820914</v>
+      </c>
+      <c r="C69">
+        <v>0.05</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>17820914</v>
+      </c>
+      <c r="G69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>1972</v>
+      </c>
+      <c r="B70">
+        <v>14906645</v>
+      </c>
+      <c r="C70">
+        <v>0.05</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>14906645</v>
+      </c>
+      <c r="G70">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>1973</v>
+      </c>
+      <c r="B71">
+        <v>12000825</v>
+      </c>
+      <c r="C71">
+        <v>0.05</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>12000825</v>
+      </c>
+      <c r="G71">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>1974</v>
+      </c>
+      <c r="B72">
+        <v>13404770</v>
+      </c>
+      <c r="C72">
+        <v>0.05</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>13404770</v>
+      </c>
+      <c r="G72">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>1975</v>
+      </c>
+      <c r="B73">
+        <v>15603036</v>
+      </c>
+      <c r="C73">
+        <v>0.05</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>15603036</v>
+      </c>
+      <c r="G73">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>1976</v>
+      </c>
+      <c r="B74">
+        <v>26120508</v>
+      </c>
+      <c r="C74">
+        <v>0.05</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>26120508</v>
+      </c>
+      <c r="G74">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>1977</v>
+      </c>
+      <c r="B75">
+        <v>26821995</v>
+      </c>
+      <c r="C75">
+        <v>0.05</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>26821995</v>
+      </c>
+      <c r="G75">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>1978</v>
+      </c>
+      <c r="B76">
+        <v>18780962</v>
+      </c>
+      <c r="C76">
+        <v>0.05</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>18780962</v>
+      </c>
+      <c r="G76">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>1979</v>
+      </c>
+      <c r="B77">
+        <v>16805611</v>
+      </c>
+      <c r="C77">
+        <v>0.05</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>16805611</v>
+      </c>
+      <c r="G77">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>1980</v>
+      </c>
+      <c r="B78">
+        <v>12928112</v>
+      </c>
+      <c r="C78">
+        <v>0.05</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>12928112</v>
+      </c>
+      <c r="G78">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>1981</v>
+      </c>
+      <c r="B79">
+        <v>4830980</v>
+      </c>
+      <c r="C79">
+        <v>0.05</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>4830980</v>
+      </c>
+      <c r="G79">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>1982</v>
+      </c>
+      <c r="B80">
+        <v>2286756</v>
+      </c>
+      <c r="C80">
+        <v>0.05</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2286756</v>
+      </c>
+      <c r="G80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>1983</v>
+      </c>
+      <c r="B81">
+        <v>516877</v>
+      </c>
+      <c r="C81">
+        <v>0.05</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>516877</v>
+      </c>
+      <c r="G81">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>1984</v>
+      </c>
+      <c r="B82">
+        <v>1272501</v>
+      </c>
+      <c r="C82">
+        <v>0.05</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1272501</v>
+      </c>
+      <c r="G82">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>1987</v>
+      </c>
+      <c r="B83">
+        <v>957318</v>
+      </c>
+      <c r="C83">
+        <v>0.05</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>957318</v>
+      </c>
+      <c r="G83">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>1988</v>
+      </c>
+      <c r="B84">
+        <v>2894480</v>
+      </c>
+      <c r="C84">
+        <v>0.05</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>2894480</v>
+      </c>
+      <c r="G84">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>1989</v>
+      </c>
+      <c r="B85">
+        <v>10672607</v>
+      </c>
+      <c r="C85">
+        <v>0.05</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>10672607</v>
+      </c>
+      <c r="G85">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>1990</v>
+      </c>
+      <c r="B86">
+        <v>16609286</v>
+      </c>
+      <c r="C86">
+        <v>0.05</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>16609286</v>
+      </c>
+      <c r="G86">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>1991</v>
+      </c>
+      <c r="B87">
+        <v>12924102</v>
+      </c>
+      <c r="C87">
+        <v>0.05</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>12924102</v>
+      </c>
+      <c r="G87">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>1992</v>
+      </c>
+      <c r="B88">
+        <v>15265865</v>
+      </c>
+      <c r="C88">
+        <v>0.05</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>15265865</v>
+      </c>
+      <c r="G88">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>1993</v>
+      </c>
+      <c r="B89">
+        <v>7236054</v>
+      </c>
+      <c r="C89">
+        <v>0.05</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>7236054</v>
+      </c>
+      <c r="G89">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>1994</v>
+      </c>
+      <c r="B90">
+        <v>3351639</v>
+      </c>
+      <c r="C90">
+        <v>0.05</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>3351639</v>
+      </c>
+      <c r="G90">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>1995</v>
+      </c>
+      <c r="B91">
+        <v>1881525</v>
+      </c>
+      <c r="C91">
+        <v>0.05</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1881525</v>
+      </c>
+      <c r="G91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>1996</v>
+      </c>
+      <c r="B92">
+        <v>734303</v>
+      </c>
+      <c r="C92">
+        <v>0.05</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>734303</v>
+      </c>
+      <c r="G92">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>2005</v>
+      </c>
+      <c r="B93">
+        <v>443865</v>
+      </c>
+      <c r="C93">
+        <v>0.05</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>443865</v>
+      </c>
+      <c r="G93">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>2006</v>
+      </c>
+      <c r="B94">
+        <v>926101</v>
+      </c>
+      <c r="C94">
+        <v>0.05</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>926101</v>
+      </c>
+      <c r="G94">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>2007</v>
+      </c>
+      <c r="B95">
+        <v>927164</v>
+      </c>
+      <c r="C95">
+        <v>0.05</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>927164</v>
+      </c>
+      <c r="G95">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>2008</v>
+      </c>
+      <c r="B96">
+        <v>830363</v>
+      </c>
+      <c r="C96">
+        <v>0.05</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>830363</v>
+      </c>
+      <c r="G96">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>2009</v>
+      </c>
+      <c r="B97">
+        <v>485963</v>
+      </c>
+      <c r="C97">
+        <v>0.05</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>485963</v>
+      </c>
+      <c r="G97">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>1965</v>
+      </c>
+      <c r="B105">
+        <v>4.24</v>
+      </c>
+      <c r="C105">
+        <v>0.05</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>4.24</v>
+      </c>
+      <c r="G105">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>1966</v>
+      </c>
+      <c r="B106">
+        <v>5.39</v>
+      </c>
+      <c r="C106">
+        <v>0.05</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>5.39</v>
+      </c>
+      <c r="G106">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>1967</v>
+      </c>
+      <c r="B107">
+        <v>29.98</v>
+      </c>
+      <c r="C107">
+        <v>0.05</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>29.98</v>
+      </c>
+      <c r="G107">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>1968</v>
+      </c>
+      <c r="B108">
+        <v>39.69</v>
+      </c>
+      <c r="C108">
+        <v>0.05</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>39.69</v>
+      </c>
+      <c r="G108">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>1969</v>
+      </c>
+      <c r="B109">
+        <v>60.6</v>
+      </c>
+      <c r="C109">
+        <v>0.05</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>60.6</v>
+      </c>
+      <c r="G109">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>1970</v>
+      </c>
+      <c r="B110">
+        <v>56.2</v>
+      </c>
+      <c r="C110">
+        <v>0.05</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>56.2</v>
+      </c>
+      <c r="G110">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>1971</v>
+      </c>
+      <c r="B111">
+        <v>45.66</v>
+      </c>
+      <c r="C111">
+        <v>0.05</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>45.66</v>
+      </c>
+      <c r="G111">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>1972</v>
+      </c>
+      <c r="B112">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="C112">
+        <v>0.05</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="G112">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>1973</v>
+      </c>
+      <c r="B113">
+        <v>28.72</v>
+      </c>
+      <c r="C113">
+        <v>0.05</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>28.72</v>
+      </c>
+      <c r="G113">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>1974</v>
+      </c>
+      <c r="B114">
+        <v>33.6</v>
+      </c>
+      <c r="C114">
+        <v>0.05</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>33.6</v>
+      </c>
+      <c r="G114">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>1975</v>
+      </c>
+      <c r="B115">
+        <v>38.92</v>
+      </c>
+      <c r="C115">
+        <v>0.05</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>38.92</v>
+      </c>
+      <c r="G115">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>1976</v>
+      </c>
+      <c r="B116">
+        <v>66.17</v>
+      </c>
+      <c r="C116">
+        <v>0.05</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>66.17</v>
+      </c>
+      <c r="G116">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>1977</v>
+      </c>
+      <c r="B117">
+        <v>78.319999999999993</v>
+      </c>
+      <c r="C117">
+        <v>0.05</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>78.319999999999993</v>
+      </c>
+      <c r="G117">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>1978</v>
+      </c>
+      <c r="B118">
+        <v>46.5</v>
+      </c>
+      <c r="C118">
+        <v>0.05</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>46.5</v>
+      </c>
+      <c r="G118">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>1979</v>
+      </c>
+      <c r="B119">
+        <v>41.9</v>
+      </c>
+      <c r="C119">
+        <v>0.05</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>41.9</v>
+      </c>
+      <c r="G119">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>1980</v>
+      </c>
+      <c r="B120">
+        <v>29.6</v>
+      </c>
+      <c r="C120">
+        <v>0.05</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>29.6</v>
+      </c>
+      <c r="G120">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>1981</v>
+      </c>
+      <c r="B121">
+        <v>11</v>
+      </c>
+      <c r="C121">
+        <v>0.05</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+      <c r="G121">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>1982</v>
+      </c>
+      <c r="B122">
+        <v>5.27</v>
+      </c>
+      <c r="C122">
+        <v>0.05</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>5.27</v>
+      </c>
+      <c r="G122">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>1983</v>
+      </c>
+      <c r="B123">
+        <v>1.21</v>
+      </c>
+      <c r="C123">
+        <v>0.05</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1.21</v>
+      </c>
+      <c r="G123">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>1984</v>
+      </c>
+      <c r="B124">
+        <v>3.15</v>
+      </c>
+      <c r="C124">
+        <v>0.05</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>3.15</v>
+      </c>
+      <c r="G124">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>1987</v>
+      </c>
+      <c r="B125">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C125">
+        <v>0.05</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G125">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>1988</v>
+      </c>
+      <c r="B126">
+        <v>7.01</v>
+      </c>
+      <c r="C126">
+        <v>0.05</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>7.01</v>
+      </c>
+      <c r="G126">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>1989</v>
+      </c>
+      <c r="B127">
+        <v>24.5</v>
+      </c>
+      <c r="C127">
+        <v>0.05</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>24.5</v>
+      </c>
+      <c r="G127">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>1990</v>
+      </c>
+      <c r="B128">
+        <v>40.1</v>
+      </c>
+      <c r="C128">
+        <v>0.05</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>40.1</v>
+      </c>
+      <c r="G128">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>1991</v>
+      </c>
+      <c r="B129">
+        <v>31.8</v>
+      </c>
+      <c r="C129">
+        <v>0.05</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>31.8</v>
+      </c>
+      <c r="G129">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>1992</v>
+      </c>
+      <c r="B130">
+        <v>35.1</v>
+      </c>
+      <c r="C130">
+        <v>0.05</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>35.1</v>
+      </c>
+      <c r="G130">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>1993</v>
+      </c>
+      <c r="B131">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C131">
+        <v>0.05</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G131">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>1994</v>
+      </c>
+      <c r="B132">
+        <v>7.8</v>
+      </c>
+      <c r="C132">
+        <v>0.05</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>7.8</v>
+      </c>
+      <c r="G132">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>1995</v>
+      </c>
+      <c r="B133">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="C133">
+        <v>0.05</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G133">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>1996</v>
+      </c>
+      <c r="B134">
+        <v>1.81</v>
+      </c>
+      <c r="C134">
+        <v>0.05</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>1.81</v>
+      </c>
+      <c r="G134">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>2005</v>
+      </c>
+      <c r="B135">
+        <v>0.95</v>
+      </c>
+      <c r="C135">
+        <v>0.05</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0.95</v>
+      </c>
+      <c r="G135">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>2006</v>
+      </c>
+      <c r="B136">
+        <v>2.12</v>
+      </c>
+      <c r="C136">
+        <v>0.05</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>2.12</v>
+      </c>
+      <c r="G136">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>2007</v>
+      </c>
+      <c r="B137">
+        <v>2.11</v>
+      </c>
+      <c r="C137">
+        <v>0.05</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>2.11</v>
+      </c>
+      <c r="G137">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>2008</v>
+      </c>
+      <c r="B138">
+        <v>1.94</v>
+      </c>
+      <c r="C138">
+        <v>0.05</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1.94</v>
+      </c>
+      <c r="G138">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>2009</v>
+      </c>
+      <c r="B139">
+        <v>1.3283560000000001</v>
+      </c>
+      <c r="C139">
+        <v>0.05</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1.3283560000000001</v>
+      </c>
+      <c r="G139">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" t="s">
+        <v>5</v>
+      </c>
+      <c r="G205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>1992</v>
+      </c>
+      <c r="B206">
+        <v>3.94</v>
+      </c>
+      <c r="C206">
+        <v>0.05</v>
+      </c>
+      <c r="D206">
+        <v>24.22</v>
+      </c>
+      <c r="E206">
+        <v>0.05</v>
+      </c>
+      <c r="F206">
+        <v>28.16</v>
+      </c>
+      <c r="G206">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>1993</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>0.05</v>
+      </c>
+      <c r="D207">
+        <v>15.06</v>
+      </c>
+      <c r="E207">
+        <v>0.05</v>
+      </c>
+      <c r="F207">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="G207">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>1994</v>
+      </c>
+      <c r="B208">
+        <v>2.8</v>
+      </c>
+      <c r="C208">
+        <v>0.05</v>
+      </c>
+      <c r="D208">
+        <v>6.9</v>
+      </c>
+      <c r="E208">
+        <v>0.05</v>
+      </c>
+      <c r="F208">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G208">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>1995</v>
+      </c>
+      <c r="B209">
+        <v>3.88</v>
+      </c>
+      <c r="C209">
+        <v>0.05</v>
+      </c>
+      <c r="D209">
+        <v>6.09</v>
+      </c>
+      <c r="E209">
+        <v>0.05</v>
+      </c>
+      <c r="F209">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="G209">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>1996</v>
+      </c>
+      <c r="B210">
+        <v>0.2</v>
+      </c>
+      <c r="C210">
+        <v>0.05</v>
+      </c>
+      <c r="D210">
+        <v>0.52</v>
+      </c>
+      <c r="E210">
+        <v>0.05</v>
+      </c>
+      <c r="F210">
+        <v>0.72</v>
+      </c>
+      <c r="G210">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>2005</v>
+      </c>
+      <c r="B211">
+        <v>0.06</v>
+      </c>
+      <c r="C211">
+        <v>0.05</v>
+      </c>
+      <c r="D211">
+        <v>0.63</v>
+      </c>
+      <c r="E211">
+        <v>0.05</v>
+      </c>
+      <c r="F211">
+        <v>0.69</v>
+      </c>
+      <c r="G211">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>2006</v>
+      </c>
+      <c r="B212">
+        <v>0.71</v>
+      </c>
+      <c r="C212">
+        <v>0.05</v>
+      </c>
+      <c r="D212">
+        <v>2.74</v>
+      </c>
+      <c r="E212">
+        <v>0.05</v>
+      </c>
+      <c r="F212">
+        <v>3.45</v>
+      </c>
+      <c r="G212">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>2007</v>
+      </c>
+      <c r="B213">
+        <v>0.22</v>
+      </c>
+      <c r="C213">
+        <v>0.05</v>
+      </c>
+      <c r="D213">
+        <v>4.63</v>
+      </c>
+      <c r="E213">
+        <v>0.05</v>
+      </c>
+      <c r="F213">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G213">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>2008</v>
+      </c>
+      <c r="B214">
+        <v>0.03</v>
+      </c>
+      <c r="C214">
+        <v>0.05</v>
+      </c>
+      <c r="D214">
+        <v>0.95</v>
+      </c>
+      <c r="E214">
+        <v>0.05</v>
+      </c>
+      <c r="F214">
+        <v>0.98</v>
+      </c>
+      <c r="G214">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>2009</v>
+      </c>
+      <c r="B215">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C215">
+        <v>0.05</v>
+      </c>
+      <c r="D215">
+        <v>0.15757099999999999</v>
+      </c>
+      <c r="E215">
+        <v>0.05</v>
+      </c>
+      <c r="F215">
+        <v>0.16257099999999999</v>
+      </c>
+      <c r="G215">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
